--- a/src/test/resources/wrongLoginData.xlsx
+++ b/src/test/resources/wrongLoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\IdeaProjects\ALK-Selenium-Java-Project\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB244B96-3021-4855-A9EE-FF4AACB4EF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1455BC1-E362-43DC-9048-DEE6B4891C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -369,7 +369,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
